--- a/medical-clinic-app/src/main/resources/excelFile/UserDB.xlsx
+++ b/medical-clinic-app/src/main/resources/excelFile/UserDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefania Vijulan\Desktop\Licenta_1\medical-clinic-app\src\main\resources\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefania Vijulan\Desktop\Licenta\medical-clinic-app\src\main\resources\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A1712-5670-4A2E-A96C-9317EFFA9BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB5C244-B65D-469A-8FBB-D35B770A616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>6001106181105</t>
   </si>
@@ -46,9 +46,6 @@
     <t>parola123</t>
   </si>
   <si>
-    <t>USER</t>
-  </si>
-  <si>
     <t>Mihai</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>Robert</t>
+  </si>
+  <si>
+    <t>DOCTOR</t>
+  </si>
+  <si>
+    <t>SECRETAR</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,21 +477,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -497,21 +500,21 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -520,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +545,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,68 +561,68 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/medical-clinic-app/src/main/resources/excelFile/UserDB.xlsx
+++ b/medical-clinic-app/src/main/resources/excelFile/UserDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefania Vijulan\Desktop\Licenta\medical-clinic-app\src\main\resources\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB5C244-B65D-469A-8FBB-D35B770A616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38788126-44E5-4975-853B-5E8E5CA7D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Cardiology" sheetId="1" r:id="rId1"/>
     <sheet name="Radiology" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cardiology!$A$1:$G$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Radiology!$A$1:$G$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -109,7 +113,7 @@
     <t>DOCTOR</t>
   </si>
   <si>
-    <t>SECRETAR</t>
+    <t>SECRETARY</t>
   </si>
 </sst>
 </file>
@@ -444,7 +448,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +549,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
